--- a/public/assets/sparkLeaders.xlsx
+++ b/public/assets/sparkLeaders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkalu\Desktop\Spark-Site\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDCFA219-C9EC-4F8E-8B8E-74FB3711F5A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB378AA7-E60C-4218-A8AB-3E1377316BF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14376" yWindow="930" windowWidth="17280" windowHeight="9084" xr2:uid="{75A5C300-6053-4742-A306-0D11B27981BC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{75A5C300-6053-4742-A306-0D11B27981BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,9 +246,6 @@
     <t>Yoon, Charis</t>
   </si>
   <si>
-    <t>Kye, Geena:</t>
-  </si>
-  <si>
     <t>Cho, David</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Tan, Michelle</t>
+  </si>
+  <si>
+    <t>Kye, Geena</t>
   </si>
 </sst>
 </file>
@@ -645,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB2E341-71B7-42AD-A403-48848B24F798}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -693,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -718,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -765,7 +765,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -834,7 +834,7 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -859,7 +859,7 @@
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -906,7 +906,7 @@
         <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -920,7 +920,7 @@
         <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -945,7 +945,7 @@
         <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -959,7 +959,7 @@
         <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -973,7 +973,7 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -987,7 +987,7 @@
         <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1001,7 +1001,7 @@
         <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1059,7 +1059,7 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1073,7 +1073,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
